--- a/Assets/Tables/characterStat.xlsx
+++ b/Assets/Tables/characterStat.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC62324-AB02-4CF0-9E8A-EA1783363EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C9B18E-AC05-48C9-A938-B32A68C90A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CharacterStat" sheetId="2" r:id="rId1"/>
-    <sheet name="~참고타입" sheetId="6" r:id="rId2"/>
+    <sheet name="characterStat" sheetId="2" r:id="rId1"/>
+    <sheet name="_참고타입" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,12 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
     <t>미제리</t>
   </si>
   <si>
@@ -67,30 +61,6 @@
     <t>다래</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>AttackPower</t>
-  </si>
-  <si>
-    <t>BaseHP</t>
-  </si>
-  <si>
-    <t>DefencePower</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>CriticalDamage</t>
-  </si>
-  <si>
-    <t>MaxDraw</t>
-  </si>
-  <si>
-    <t>MaxCost</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -158,6 +128,46 @@
   </si>
   <si>
     <t>_캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defencePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxDraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,44 +496,44 @@
   <dimension ref="A2:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -531,7 +541,7 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -566,7 +576,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -601,7 +611,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -636,7 +646,7 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -671,7 +681,7 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -706,7 +716,7 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -739,6 +749,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -766,30 +777,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -798,30 +809,30 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -830,30 +841,30 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -862,24 +873,24 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -888,18 +899,18 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -908,18 +919,18 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>5</v>
